--- a/cash flows.xlsx
+++ b/cash flows.xlsx
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -465,19 +465,19 @@
       </c>
       <c r="E10">
         <f>C10/(1+B$5)^B10</f>
-        <v>63.063063063063055</v>
+        <v>64.81481481481481</v>
       </c>
       <c r="F10">
         <f>D10/(1+B$5)^B10</f>
-        <v>18.018018018018015</v>
+        <v>18.518518518518519</v>
       </c>
       <c r="G10">
         <f xml:space="preserve"> C8+E10</f>
-        <v>-146.93693693693695</v>
+        <v>-145.18518518518519</v>
       </c>
       <c r="H10">
         <f xml:space="preserve"> D8 +F10</f>
-        <v>-31.981981981981985</v>
+        <v>-31.481481481481481</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -493,19 +493,19 @@
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E14" si="0">C11/(1+B$5)^B11</f>
-        <v>56.813570327083831</v>
+        <v>60.013717421124824</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F14" si="1">D11/(1+B$5)^B11</f>
-        <v>16.232448664881094</v>
+        <v>17.146776406035663</v>
       </c>
       <c r="G11">
         <f>G10+E11</f>
-        <v>-90.123366609853122</v>
+        <v>-85.171467764060367</v>
       </c>
       <c r="H11">
         <f xml:space="preserve"> H10 + F11</f>
-        <v>-15.749533317100891</v>
+        <v>-14.334705075445818</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -521,19 +521,19 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>51.183396691066513</v>
+        <v>55.568256871411869</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>14.623827626019004</v>
+        <v>15.876644820403392</v>
       </c>
       <c r="G12">
         <f t="shared" ref="G12:G14" si="2">G11+E12</f>
-        <v>-38.939969918786609</v>
+        <v>-29.603210892648498</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H14" si="3" xml:space="preserve"> H11 + F12</f>
-        <v>-1.1257056910818868</v>
+        <v>1.541939744957574</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -549,19 +549,19 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>46.111168190150011</v>
+        <v>51.452089695751731</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>13.174619482900003</v>
+        <v>14.700597055929064</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>7.1711982713634015</v>
+        <v>21.848878803103233</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>12.048913791818116</v>
+        <v>16.24253680088664</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -577,19 +577,19 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>41.541592964099102</v>
+        <v>47.64082379236271</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>11.869026561171173</v>
+        <v>13.61166394067506</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>48.712791235462504</v>
+        <v>69.489702595465943</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>23.917940352989291</v>
+        <v>29.854200741561698</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
